--- a/testData/testScriptData.xlsx
+++ b/testData/testScriptData.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testing\CRM\Vtiger\testData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B80F41F-1409-4026-B0D0-BE0596BEF6AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{53384032-7E08-4ACE-8315-F9D1F33BEB38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="20760" windowHeight="11820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
     <sheet name="contact" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:F7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -441,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -538,7 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB901F64-B97D-4099-B7B0-E50AA34C6726}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
